--- a/analysis/comparison_table/comparison_table.xlsx
+++ b/analysis/comparison_table/comparison_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Universidad\Noveno semestre\Heurística\heuristics-PTL-system\analysis\comparison_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CCF468-60A5-4189-B6E2-BFA471FF55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7EC24B-A63A-4C1B-A409-E6B2105A8D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>instance</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>evolutionary_1_plus_1</t>
+  </si>
+  <si>
+    <t>local_search_vns</t>
   </si>
   <si>
     <t>40_heterogeneous.xlsx</t>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B14" sqref="B14:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -524,25 +527,25 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>510.46</v>
+        <v>512.37</v>
       </c>
       <c r="F3">
-        <v>515.03</v>
+        <v>514.9</v>
       </c>
       <c r="G3">
-        <v>2.0699999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I3">
-        <v>2.2999999999999998</v>
+        <v>2.48</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.6020000000000001</v>
+        <v>1.5350999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -559,68 +562,68 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>504.58</v>
+        <v>504.61</v>
       </c>
       <c r="F4">
-        <v>504.67</v>
+        <v>504.7</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.6299999999999998E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5">
-        <v>561.72</v>
+        <v>504.57</v>
       </c>
       <c r="D5">
-        <v>20.39</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>641.66999999999996</v>
+        <v>504.63</v>
       </c>
       <c r="F5">
-        <v>641.66999999999996</v>
+        <v>504.72</v>
       </c>
       <c r="G5">
-        <v>14.23</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>190.72</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
-        <v>190.72</v>
+        <v>0.24</v>
       </c>
       <c r="J5">
-        <v>835.36</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.0000000000000001E-3</v>
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>561.72</v>
@@ -629,33 +632,33 @@
         <v>20.39</v>
       </c>
       <c r="E6">
-        <v>609.70000000000005</v>
+        <v>641.66999999999996</v>
       </c>
       <c r="F6">
-        <v>636.58000000000004</v>
+        <v>641.66999999999996</v>
       </c>
       <c r="G6">
-        <v>13.33</v>
+        <v>14.23</v>
       </c>
       <c r="H6">
-        <v>100.02</v>
+        <v>190.72</v>
       </c>
       <c r="I6">
-        <v>145.79</v>
+        <v>190.72</v>
       </c>
       <c r="J6">
-        <v>615.01</v>
+        <v>835.36</v>
       </c>
       <c r="K6">
-        <v>1.6572</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>561.72</v>
@@ -664,25 +667,25 @@
         <v>20.39</v>
       </c>
       <c r="E7">
-        <v>561.74</v>
+        <v>614.48</v>
       </c>
       <c r="F7">
-        <v>563.13</v>
+        <v>637.64</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>13.52</v>
       </c>
       <c r="H7">
-        <v>18.05</v>
+        <v>110.39</v>
       </c>
       <c r="I7">
-        <v>24.46</v>
+        <v>148.65</v>
       </c>
       <c r="J7">
-        <v>19.96</v>
+        <v>629.03</v>
       </c>
       <c r="K7">
-        <v>6.8199999999999997E-2</v>
+        <v>1.6114999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -690,34 +693,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>541.01</v>
+        <v>561.72</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>20.39</v>
       </c>
       <c r="E8">
-        <v>546.88</v>
+        <v>561.72</v>
       </c>
       <c r="F8">
-        <v>546.88</v>
+        <v>562.66999999999996</v>
       </c>
       <c r="G8">
-        <v>1.0900000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="H8">
-        <v>14.32</v>
+        <v>18.11</v>
       </c>
       <c r="I8">
-        <v>14.32</v>
+        <v>23.58</v>
       </c>
       <c r="J8">
-        <v>14220</v>
+        <v>15.64</v>
       </c>
       <c r="K8">
-        <v>6.1000000000000004E-3</v>
+        <v>6.93E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -725,42 +728,42 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>541.01</v>
+        <v>561.72</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>20.39</v>
       </c>
       <c r="E9">
-        <v>551.42999999999995</v>
+        <v>613.72</v>
       </c>
       <c r="F9">
-        <v>555.1</v>
+        <v>615.78</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="H9">
-        <v>0.92</v>
+        <v>128.18</v>
       </c>
       <c r="I9">
-        <v>4.79</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="J9">
-        <v>4690</v>
+        <v>555.71</v>
       </c>
       <c r="K9">
-        <v>3.4091999999999998</v>
+        <v>2.5700000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>541.01</v>
@@ -769,25 +772,25 @@
         <v>0.1</v>
       </c>
       <c r="E10">
-        <v>541.05999999999995</v>
+        <v>546.88</v>
       </c>
       <c r="F10">
-        <v>541.33000000000004</v>
+        <v>546.88</v>
       </c>
       <c r="G10">
-        <v>0.06</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H10">
-        <v>0.01</v>
+        <v>14.32</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>14.32</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>14220</v>
       </c>
       <c r="K10">
-        <v>9.2700000000000005E-2</v>
+        <v>5.8999999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -795,34 +798,34 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>587.96</v>
+        <v>541.01</v>
       </c>
       <c r="D11">
-        <v>7.39</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>631.04999999999995</v>
+        <v>552.4</v>
       </c>
       <c r="F11">
-        <v>631.04999999999995</v>
+        <v>555.08000000000004</v>
       </c>
       <c r="G11">
-        <v>7.33</v>
+        <v>2.6</v>
       </c>
       <c r="H11">
-        <v>139.94999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I11">
-        <v>139.94999999999999</v>
+        <v>5.77</v>
       </c>
       <c r="J11">
-        <v>1793.78</v>
+        <v>5670</v>
       </c>
       <c r="K11">
-        <v>6.0000000000000001E-3</v>
+        <v>3.4340000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -830,34 +833,34 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>587.96</v>
+        <v>541.01</v>
       </c>
       <c r="D12">
-        <v>7.39</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>629.6</v>
+        <v>541</v>
       </c>
       <c r="F12">
-        <v>642.42999999999995</v>
+        <v>541.39</v>
       </c>
       <c r="G12">
-        <v>9.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H12">
-        <v>76.819999999999993</v>
+        <v>0.02</v>
       </c>
       <c r="I12">
-        <v>119.44</v>
+        <v>0.22</v>
       </c>
       <c r="J12">
-        <v>1516.24</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>3.6747999999999998</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -865,34 +868,34 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>587.96</v>
+        <v>541.01</v>
       </c>
       <c r="D13">
-        <v>7.39</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>588.11</v>
+        <v>543.65</v>
       </c>
       <c r="F13">
-        <v>591.54</v>
+        <v>543.65</v>
       </c>
       <c r="G13">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="H13">
-        <v>2.29</v>
+        <v>3.42</v>
       </c>
       <c r="I13">
-        <v>13.82</v>
+        <v>5.7</v>
       </c>
       <c r="J13">
-        <v>87.01</v>
+        <v>5600</v>
       </c>
       <c r="K13">
-        <v>9.6299999999999997E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -903,31 +906,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>521.79999999999995</v>
+        <v>587.96</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>7.39</v>
       </c>
       <c r="E14">
-        <v>532.41</v>
+        <v>631.04999999999995</v>
       </c>
       <c r="F14">
-        <v>532.41</v>
+        <v>631.04999999999995</v>
       </c>
       <c r="G14">
-        <v>2.0299999999999998</v>
+        <v>7.33</v>
       </c>
       <c r="H14">
-        <v>18.13</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="I14">
-        <v>18.13</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="J14">
-        <v>15008.33</v>
+        <v>1793.78</v>
       </c>
       <c r="K14">
-        <v>1.01E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -938,31 +941,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>521.79999999999995</v>
+        <v>587.96</v>
       </c>
       <c r="D15">
-        <v>0.12</v>
+        <v>7.39</v>
       </c>
       <c r="E15">
-        <v>536.98</v>
+        <v>635.78</v>
       </c>
       <c r="F15">
-        <v>540.74</v>
+        <v>643.48</v>
       </c>
       <c r="G15">
-        <v>3.63</v>
+        <v>9.44</v>
       </c>
       <c r="H15">
-        <v>2.41</v>
+        <v>102.39</v>
       </c>
       <c r="I15">
-        <v>10.78</v>
+        <v>126.47</v>
       </c>
       <c r="J15">
-        <v>8883.33</v>
+        <v>1611.37</v>
       </c>
       <c r="K15">
-        <v>5.8663999999999996</v>
+        <v>3.8233000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -973,66 +976,66 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>521.79999999999995</v>
+        <v>587.96</v>
       </c>
       <c r="D16">
-        <v>0.12</v>
+        <v>7.39</v>
       </c>
       <c r="E16">
-        <v>521.85</v>
+        <v>588.11</v>
       </c>
       <c r="F16">
-        <v>522.41999999999996</v>
+        <v>592.04</v>
       </c>
       <c r="G16">
-        <v>0.12</v>
+        <v>0.69</v>
       </c>
       <c r="H16">
-        <v>0.13</v>
+        <v>3.21</v>
       </c>
       <c r="I16">
-        <v>0.47</v>
+        <v>15.61</v>
       </c>
       <c r="J16">
-        <v>291.67</v>
+        <v>111.23</v>
       </c>
       <c r="K16">
-        <v>0.1045</v>
+        <v>9.8400000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>591.30999999999995</v>
+        <v>587.96</v>
       </c>
       <c r="D17">
-        <v>50.92</v>
+        <v>7.39</v>
       </c>
       <c r="E17">
-        <v>670.96</v>
+        <v>633.41999999999996</v>
       </c>
       <c r="F17">
-        <v>670.96</v>
+        <v>633.42999999999995</v>
       </c>
       <c r="G17">
-        <v>13.47</v>
+        <v>7.73</v>
       </c>
       <c r="H17">
-        <v>214.51</v>
+        <v>143.35</v>
       </c>
       <c r="I17">
-        <v>214.51</v>
+        <v>151.18</v>
       </c>
       <c r="J17">
-        <v>321.27</v>
+        <v>1945.74</v>
       </c>
       <c r="K17">
-        <v>1.01E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1040,34 +1043,34 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>591.30999999999995</v>
+        <v>521.79999999999995</v>
       </c>
       <c r="D18">
-        <v>50.92</v>
+        <v>0.12</v>
       </c>
       <c r="E18">
-        <v>685.73</v>
+        <v>532.41</v>
       </c>
       <c r="F18">
-        <v>695.89</v>
+        <v>532.41</v>
       </c>
       <c r="G18">
-        <v>17.690000000000001</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H18">
-        <v>200.31</v>
+        <v>18.13</v>
       </c>
       <c r="I18">
-        <v>231.84</v>
+        <v>18.13</v>
       </c>
       <c r="J18">
-        <v>355.3</v>
+        <v>15008.33</v>
       </c>
       <c r="K18">
-        <v>5.9837999999999996</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1075,34 +1078,244 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>521.79999999999995</v>
+      </c>
+      <c r="D19">
+        <v>0.12</v>
+      </c>
+      <c r="E19">
+        <v>536.80999999999995</v>
+      </c>
+      <c r="F19">
+        <v>540.54999999999995</v>
+      </c>
+      <c r="G19">
+        <v>3.59</v>
+      </c>
+      <c r="H19">
+        <v>0.86</v>
+      </c>
+      <c r="I19">
+        <v>10.49</v>
+      </c>
+      <c r="J19">
+        <v>8641.67</v>
+      </c>
+      <c r="K19">
+        <v>5.9508999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="C20">
+        <v>521.79999999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.12</v>
+      </c>
+      <c r="E20">
+        <v>521.74</v>
+      </c>
+      <c r="F20">
+        <v>522.04999999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>0.45</v>
+      </c>
+      <c r="J20">
+        <v>275</v>
+      </c>
+      <c r="K20">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>521.79999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.12</v>
+      </c>
+      <c r="E21">
+        <v>522.55999999999995</v>
+      </c>
+      <c r="F21">
+        <v>522.72</v>
+      </c>
+      <c r="G21">
+        <v>0.18</v>
+      </c>
+      <c r="H21">
+        <v>1.98</v>
+      </c>
+      <c r="I21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J21">
+        <v>1733.33</v>
+      </c>
+      <c r="K21">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>591.30999999999995</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>50.92</v>
       </c>
-      <c r="E19">
-        <v>591.78</v>
-      </c>
-      <c r="F19">
-        <v>598.32000000000005</v>
-      </c>
-      <c r="G19">
-        <v>1.19</v>
-      </c>
-      <c r="H19">
-        <v>51.05</v>
-      </c>
-      <c r="I19">
-        <v>66.37</v>
-      </c>
-      <c r="J19">
-        <v>30.34</v>
-      </c>
-      <c r="K19">
-        <v>0.10879999999999999</v>
+      <c r="E22">
+        <v>670.96</v>
+      </c>
+      <c r="F22">
+        <v>670.96</v>
+      </c>
+      <c r="G22">
+        <v>13.47</v>
+      </c>
+      <c r="H22">
+        <v>214.51</v>
+      </c>
+      <c r="I22">
+        <v>214.51</v>
+      </c>
+      <c r="J22">
+        <v>321.27</v>
+      </c>
+      <c r="K22">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>591.30999999999995</v>
+      </c>
+      <c r="D23">
+        <v>50.92</v>
+      </c>
+      <c r="E23">
+        <v>671.51</v>
+      </c>
+      <c r="F23">
+        <v>694.73</v>
+      </c>
+      <c r="G23">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="H23">
+        <v>178.65</v>
+      </c>
+      <c r="I23">
+        <v>236.09</v>
+      </c>
+      <c r="J23">
+        <v>363.65</v>
+      </c>
+      <c r="K23">
+        <v>6.2023000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>591.30999999999995</v>
+      </c>
+      <c r="D24">
+        <v>50.92</v>
+      </c>
+      <c r="E24">
+        <v>593.89</v>
+      </c>
+      <c r="F24">
+        <v>599.29</v>
+      </c>
+      <c r="G24">
+        <v>1.35</v>
+      </c>
+      <c r="H24">
+        <v>49.23</v>
+      </c>
+      <c r="I24">
+        <v>68.28</v>
+      </c>
+      <c r="J24">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>591.30999999999995</v>
+      </c>
+      <c r="D25">
+        <v>50.92</v>
+      </c>
+      <c r="E25">
+        <v>658.88</v>
+      </c>
+      <c r="F25">
+        <v>658.88</v>
+      </c>
+      <c r="G25">
+        <v>11.43</v>
+      </c>
+      <c r="H25">
+        <v>187.55</v>
+      </c>
+      <c r="I25">
+        <v>190.13</v>
+      </c>
+      <c r="J25">
+        <v>273.39</v>
+      </c>
+      <c r="K25">
+        <v>3.1399999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/comparison_table/comparison_table.xlsx
+++ b/analysis/comparison_table/comparison_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Universidad\Noveno semestre\Heurística\heuristics-PTL-system\analysis\comparison_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7EC24B-A63A-4C1B-A409-E6B2105A8D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E81EF2-F80C-4A55-B53F-A9EC17905F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K17"/>
+      <selection activeCell="B25" sqref="B22:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.8E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -527,25 +527,25 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>512.37</v>
+        <v>512.94000000000005</v>
       </c>
       <c r="F3">
-        <v>514.9</v>
+        <v>515.03</v>
       </c>
       <c r="G3">
-        <v>2.0499999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.5350999999999999</v>
+        <v>1.6588000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -562,25 +562,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>504.61</v>
+        <v>504.58</v>
       </c>
       <c r="F4">
-        <v>504.7</v>
+        <v>504.78</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.4000000000000001E-2</v>
+        <v>7.9699999999999993E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -597,25 +597,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>504.63</v>
+        <v>509.76</v>
       </c>
       <c r="F5">
-        <v>504.72</v>
+        <v>513.09</v>
       </c>
       <c r="G5">
+        <v>1.69</v>
+      </c>
+      <c r="H5">
         <v>0.03</v>
       </c>
-      <c r="H5">
-        <v>0.02</v>
-      </c>
       <c r="I5">
-        <v>0.24</v>
+        <v>1.03</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.47E-2</v>
+        <v>1.7583</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>835.36</v>
       </c>
       <c r="K6">
-        <v>2.8999999999999998E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -667,25 +667,25 @@
         <v>20.39</v>
       </c>
       <c r="E7">
-        <v>614.48</v>
+        <v>618.73</v>
       </c>
       <c r="F7">
-        <v>637.64</v>
+        <v>637.54</v>
       </c>
       <c r="G7">
-        <v>13.52</v>
+        <v>13.5</v>
       </c>
       <c r="H7">
-        <v>110.39</v>
+        <v>115.39</v>
       </c>
       <c r="I7">
-        <v>148.65</v>
+        <v>149.51</v>
       </c>
       <c r="J7">
-        <v>629.03</v>
+        <v>633.25</v>
       </c>
       <c r="K7">
-        <v>1.6114999999999999</v>
+        <v>1.7576000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -705,22 +705,22 @@
         <v>561.72</v>
       </c>
       <c r="F8">
-        <v>562.66999999999996</v>
+        <v>562.70000000000005</v>
       </c>
       <c r="G8">
         <v>0.17</v>
       </c>
       <c r="H8">
-        <v>18.11</v>
+        <v>19.27</v>
       </c>
       <c r="I8">
-        <v>23.58</v>
+        <v>23.76</v>
       </c>
       <c r="J8">
-        <v>15.64</v>
+        <v>16.53</v>
       </c>
       <c r="K8">
-        <v>6.93E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -737,25 +737,25 @@
         <v>20.39</v>
       </c>
       <c r="E9">
-        <v>613.72</v>
+        <v>600</v>
       </c>
       <c r="F9">
-        <v>615.78</v>
+        <v>616.62</v>
       </c>
       <c r="G9">
-        <v>9.6199999999999992</v>
+        <v>9.77</v>
       </c>
       <c r="H9">
-        <v>128.18</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="I9">
-        <v>133.69999999999999</v>
+        <v>108.35</v>
       </c>
       <c r="J9">
-        <v>555.71</v>
+        <v>431.39</v>
       </c>
       <c r="K9">
-        <v>2.5700000000000001E-2</v>
+        <v>1.8151999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>14220</v>
       </c>
       <c r="K10">
-        <v>5.8999999999999999E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -807,25 +807,25 @@
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>552.4</v>
+        <v>551.79999999999995</v>
       </c>
       <c r="F11">
-        <v>555.08000000000004</v>
+        <v>555.30999999999995</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H11">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I11">
-        <v>5.77</v>
+        <v>5.93</v>
       </c>
       <c r="J11">
-        <v>5670</v>
+        <v>5830</v>
       </c>
       <c r="K11">
-        <v>3.4340000000000002</v>
+        <v>4.3164999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -842,25 +842,25 @@
         <v>0.1</v>
       </c>
       <c r="E12">
-        <v>541</v>
+        <v>541.12</v>
       </c>
       <c r="F12">
-        <v>541.39</v>
+        <v>541.5</v>
       </c>
       <c r="G12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J12">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K12">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13439999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -877,25 +877,25 @@
         <v>0.1</v>
       </c>
       <c r="E13">
-        <v>543.65</v>
+        <v>548.76</v>
       </c>
       <c r="F13">
-        <v>543.65</v>
+        <v>553.35</v>
       </c>
       <c r="G13">
-        <v>0.49</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H13">
-        <v>3.42</v>
+        <v>0.43</v>
       </c>
       <c r="I13">
-        <v>5.7</v>
+        <v>1.82</v>
       </c>
       <c r="J13">
-        <v>5600</v>
+        <v>1720</v>
       </c>
       <c r="K13">
-        <v>2.6200000000000001E-2</v>
+        <v>4.4044999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>1793.78</v>
       </c>
       <c r="K14">
-        <v>7.0000000000000001E-3</v>
+        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -947,25 +947,25 @@
         <v>7.39</v>
       </c>
       <c r="E15">
-        <v>635.78</v>
+        <v>630.20000000000005</v>
       </c>
       <c r="F15">
-        <v>643.48</v>
+        <v>643.42999999999995</v>
       </c>
       <c r="G15">
-        <v>9.44</v>
+        <v>9.43</v>
       </c>
       <c r="H15">
-        <v>102.39</v>
+        <v>84.09</v>
       </c>
       <c r="I15">
-        <v>126.47</v>
+        <v>123.19</v>
       </c>
       <c r="J15">
-        <v>1611.37</v>
+        <v>1566.98</v>
       </c>
       <c r="K15">
-        <v>3.8233000000000001</v>
+        <v>7.8079999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -982,25 +982,25 @@
         <v>7.39</v>
       </c>
       <c r="E16">
-        <v>588.11</v>
+        <v>588.78</v>
       </c>
       <c r="F16">
-        <v>592.04</v>
+        <v>592.34</v>
       </c>
       <c r="G16">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="H16">
-        <v>3.21</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I16">
-        <v>15.61</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="J16">
-        <v>111.23</v>
+        <v>119.76</v>
       </c>
       <c r="K16">
-        <v>9.8400000000000001E-2</v>
+        <v>0.20469999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1017,25 +1017,25 @@
         <v>7.39</v>
       </c>
       <c r="E17">
-        <v>633.41999999999996</v>
+        <v>625.41</v>
       </c>
       <c r="F17">
-        <v>633.42999999999995</v>
+        <v>632.92999999999995</v>
       </c>
       <c r="G17">
-        <v>7.73</v>
+        <v>7.65</v>
       </c>
       <c r="H17">
-        <v>143.35</v>
+        <v>73.19</v>
       </c>
       <c r="I17">
-        <v>151.18</v>
+        <v>97.62</v>
       </c>
       <c r="J17">
-        <v>1945.74</v>
+        <v>1220.97</v>
       </c>
       <c r="K17">
-        <v>3.1899999999999998E-2</v>
+        <v>7.9287999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1070,7 +1070,7 @@
         <v>15008.33</v>
       </c>
       <c r="K18">
-        <v>1.1900000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1087,25 +1087,25 @@
         <v>0.12</v>
       </c>
       <c r="E19">
-        <v>536.80999999999995</v>
+        <v>537.59</v>
       </c>
       <c r="F19">
-        <v>540.54999999999995</v>
+        <v>540.57000000000005</v>
       </c>
       <c r="G19">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="H19">
-        <v>0.86</v>
+        <v>2.5</v>
       </c>
       <c r="I19">
-        <v>10.49</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="J19">
-        <v>8641.67</v>
+        <v>7783.33</v>
       </c>
       <c r="K19">
-        <v>5.9508999999999999</v>
+        <v>9.9649000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1122,25 +1122,25 @@
         <v>0.12</v>
       </c>
       <c r="E20">
-        <v>521.74</v>
+        <v>521.91999999999996</v>
       </c>
       <c r="F20">
-        <v>522.04999999999995</v>
+        <v>522.47</v>
       </c>
       <c r="G20">
+        <v>0.13</v>
+      </c>
+      <c r="H20">
         <v>0.05</v>
       </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
       <c r="I20">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="J20">
-        <v>275</v>
+        <v>191.67</v>
       </c>
       <c r="K20">
-        <v>0.11119999999999999</v>
+        <v>0.12590000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1157,25 +1157,25 @@
         <v>0.12</v>
       </c>
       <c r="E21">
-        <v>522.55999999999995</v>
+        <v>533.86</v>
       </c>
       <c r="F21">
-        <v>522.72</v>
+        <v>537.9</v>
       </c>
       <c r="G21">
-        <v>0.18</v>
+        <v>3.09</v>
       </c>
       <c r="H21">
-        <v>1.98</v>
+        <v>0.49</v>
       </c>
       <c r="I21">
-        <v>2.2000000000000002</v>
+        <v>3.67</v>
       </c>
       <c r="J21">
-        <v>1733.33</v>
+        <v>2958.33</v>
       </c>
       <c r="K21">
-        <v>4.8099999999999997E-2</v>
+        <v>7.0964999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>321.27</v>
       </c>
       <c r="K22">
-        <v>1.2E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1227,25 +1227,25 @@
         <v>50.92</v>
       </c>
       <c r="E23">
-        <v>671.51</v>
+        <v>674.36</v>
       </c>
       <c r="F23">
-        <v>694.73</v>
+        <v>692.85</v>
       </c>
       <c r="G23">
-        <v>17.489999999999998</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="H23">
-        <v>178.65</v>
+        <v>196.44</v>
       </c>
       <c r="I23">
-        <v>236.09</v>
+        <v>228.36</v>
       </c>
       <c r="J23">
-        <v>363.65</v>
+        <v>348.47</v>
       </c>
       <c r="K23">
-        <v>6.2023000000000001</v>
+        <v>7.7548000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1262,25 +1262,25 @@
         <v>50.92</v>
       </c>
       <c r="E24">
-        <v>593.89</v>
+        <v>593.44000000000005</v>
       </c>
       <c r="F24">
-        <v>599.29</v>
+        <v>598.84</v>
       </c>
       <c r="G24">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="H24">
-        <v>49.23</v>
+        <v>49.41</v>
       </c>
       <c r="I24">
-        <v>68.28</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="J24">
-        <v>34.090000000000003</v>
+        <v>35.53</v>
       </c>
       <c r="K24">
-        <v>0.1105</v>
+        <v>0.1222</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,25 +1297,25 @@
         <v>50.92</v>
       </c>
       <c r="E25">
-        <v>658.88</v>
+        <v>665.54</v>
       </c>
       <c r="F25">
-        <v>658.88</v>
+        <v>679.44</v>
       </c>
       <c r="G25">
-        <v>11.43</v>
+        <v>14.9</v>
       </c>
       <c r="H25">
-        <v>187.55</v>
+        <v>162.63999999999999</v>
       </c>
       <c r="I25">
-        <v>190.13</v>
+        <v>203.19</v>
       </c>
       <c r="J25">
-        <v>273.39</v>
+        <v>299.04000000000002</v>
       </c>
       <c r="K25">
-        <v>3.1399999999999997E-2</v>
+        <v>7.3414999999999999</v>
       </c>
     </row>
   </sheetData>
